--- a/Para el TR1/8. Matriz de Asignación de Responsabilidades (RACI) v1.1.xlsx
+++ b/Para el TR1/8. Matriz de Asignación de Responsabilidades (RACI) v1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C047A22-9589-408C-A5C1-FD9C33FA9249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D871AC2-C324-4452-88B0-9B303094300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Matriz de Asignación de Responsabilidades (RACI)</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Fin</t>
   </si>
   <si>
-    <t>DANIEL JESUS ASENCIOS QUIJAITE</t>
-  </si>
-  <si>
-    <t>OSWALDO ELIZER RAMOS CORDOVA</t>
-  </si>
-  <si>
     <t>Especificaciones del Software</t>
   </si>
   <si>
@@ -117,6 +111,21 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Ayrton Jesus Rumualdo Baldeón</t>
+  </si>
+  <si>
+    <t>Sebastían Alberto Chota Francia</t>
+  </si>
+  <si>
+    <t>Carlos Fabricio Canlla Falcón</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marcello Alejandro Cano Lopez Torres</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -172,18 +181,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -232,28 +241,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,7 +271,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,342 +642,492 @@
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>14</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1"/>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+        <v>25</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
         <v>18</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <v>18</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>16</v>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -967,21 +1144,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CD60904508814A439128043ED18E5729" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="98ca1fe9be1e473138a4c265251f412a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -1095,10 +1257,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1845C159-FE27-4EEC-850E-304D0F94872C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F52055E-238B-4EE3-BFD4-5C3EAF92DB69}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1113,16 +1297,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F52055E-238B-4EE3-BFD4-5C3EAF92DB69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1845C159-FE27-4EEC-850E-304D0F94872C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
